--- a/Pedidos/DataExcel/Inventario/LogReporteInventarioKatalon.xlsx
+++ b/Pedidos/DataExcel/Inventario/LogReporteInventarioKatalon.xlsx
@@ -1,17 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>IdProducto</t>
+  </si>
+  <si>
+    <t>CodProducto</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>IdGrupo</t>
+  </si>
+  <si>
+    <t>Existencia</t>
+  </si>
+  <si>
+    <t>IdAlmacen1</t>
+  </si>
+  <si>
+    <t>CantidadActual1</t>
+  </si>
+  <si>
+    <t>IdAlmacen2</t>
+  </si>
+  <si>
+    <t>CantidadActual2</t>
+  </si>
+  <si>
+    <t>CantidadMovida</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SalidaDeMercancias</t>
+  </si>
+  <si>
+    <t>DispatchOutput</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
+    <t>MP: Liquidos</t>
+  </si>
+  <si>
+    <t>9080901</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8260285</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>6741027</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>819624</t>
+  </si>
+  <si>
+    <t>503688</t>
+  </si>
+  <si>
+    <t>TransferenciaDeMercancias</t>
+  </si>
+  <si>
+    <t>VerificaciónCalidad</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>9511-202-111</t>
+  </si>
+  <si>
+    <t>Envase 1 Galon - TRENTON5</t>
+  </si>
+  <si>
+    <t>Materia Prima</t>
+  </si>
+  <si>
+    <t>50005</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,15 +153,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -61,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -220,7 +329,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -229,13 +338,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -245,7 +354,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -254,7 +363,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -263,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -273,12 +382,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -309,7 +418,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -328,7 +437,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -345,14 +454,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>